--- a/filereader/file-reader/data/pvalidData.xlsx
+++ b/filereader/file-reader/data/pvalidData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soorya\workspace\file-reader\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Soorya\workspace\standard-app\deploy\working\myapp\filereader\file-reader\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E27E5A-B7EA-49A5-8981-65BF39B14826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA4241-8F14-4B34-846D-15D1B2DEB63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>02/10/2027</t>
   </si>
   <si>
-    <t>PRODUCT4</t>
-  </si>
-  <si>
     <t>Product 4 Title</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>PRO_ALPHA</t>
+  </si>
+  <si>
+    <t>PRODUCT41</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -689,25 +689,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -718,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -764,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -781,13 +781,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -810,7 +810,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -833,7 +833,7 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -850,71 +850,71 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
